--- a/Chi tiêu.xlsx
+++ b/Chi tiêu.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Mục Tiêu</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Thay nhớt</t>
+  </si>
+  <si>
+    <t>Không thay</t>
   </si>
   <si>
     <t>15000/l</t>
@@ -189,8 +192,8 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0\ &quot;đ&quot;"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -247,15 +250,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,9 +281,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,30 +301,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,18 +321,47 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -363,15 +372,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,31 +424,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,151 +604,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,6 +646,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -660,9 +687,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -672,36 +697,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,17 +753,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -788,162 +776,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -954,12 +966,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1008,7 +1020,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1348,7 +1360,7 @@
   <dimension ref="A2:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:N14"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1369,45 +1381,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:8">
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35" t="s">
+      <c r="J3" s="37"/>
+      <c r="K3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="N3" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1418,42 +1430,42 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="7">
         <v>10000000</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="28">
         <f>SUM(C4:C29)</f>
         <v>70100000</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
         <v>7500000</v>
       </c>
       <c r="F4" s="1">
         <f>((CEILING(D4/E4,1)))</f>
         <v>10</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="7">
         <f>E4-F8</f>
         <v>7010000</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="7">
         <v>1415000</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="7">
         <f>J4-F8</f>
         <v>925000</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="7">
         <f>4560000+1500000</f>
         <v>6060000</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="7">
         <v>1000000</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="7">
         <f>L4-J22+M4</f>
         <v>2500000</v>
       </c>
@@ -1465,23 +1477,32 @@
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="7">
         <v>20000000</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="26"/>
+      <c r="G5" s="29"/>
       <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="J5" s="7">
+        <f>7063000-4560000</f>
+        <v>2503000</v>
+      </c>
+      <c r="K5" s="7">
+        <f>J5-F8</f>
+        <v>2013000</v>
+      </c>
+      <c r="L5" s="7">
+        <f>75000</f>
+        <v>75000</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
@@ -1490,24 +1511,24 @@
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>9000000</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="3">
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="7">
         <f>(E4*F4)-D4</f>
         <v>4900000</v>
       </c>
-      <c r="G6" s="26"/>
+      <c r="G6" s="29"/>
       <c r="I6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
@@ -1516,23 +1537,23 @@
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="7">
         <v>10000000</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="6" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" s="31"/>
       <c r="I7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
@@ -1541,24 +1562,24 @@
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="7">
         <v>900000</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="29">
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="32">
         <f>F6/F4</f>
         <v>490000</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="29"/>
       <c r="I8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
@@ -1567,21 +1588,21 @@
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="7">
         <v>1500000</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
       <c r="I9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
@@ -1590,21 +1611,21 @@
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="7">
         <v>18400000</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
       <c r="I10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
@@ -1613,75 +1634,75 @@
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="7">
         <v>300000</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
       <c r="I11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="32"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="35"/>
       <c r="I12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
       <c r="I13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="25"/>
-      <c r="J14" s="36">
+      <c r="C14" s="7"/>
+      <c r="D14" s="28"/>
+      <c r="J14" s="39">
         <f>SUM(J4:J13)</f>
-        <v>1415000</v>
-      </c>
-      <c r="K14" s="37">
+        <v>3918000</v>
+      </c>
+      <c r="K14" s="40">
         <f>SUM(K4:K13)</f>
-        <v>925000</v>
-      </c>
-      <c r="L14" s="38">
+        <v>2938000</v>
+      </c>
+      <c r="L14" s="41">
         <f>SUM(L4:L13)</f>
-        <v>6060000</v>
-      </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="37">
+        <v>6135000</v>
+      </c>
+      <c r="M14" s="42"/>
+      <c r="N14" s="40">
         <f>SUM(N4:N13)</f>
         <v>2500000</v>
       </c>
@@ -1689,72 +1710,72 @@
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="25"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="28"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="25"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="28"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="25"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="28"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="25"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="28"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="25"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="25"/>
-      <c r="I20" s="40" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="28"/>
+      <c r="I20" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="41"/>
-      <c r="K20" s="42"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="45"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="25"/>
-      <c r="I21" s="43" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="28"/>
+      <c r="I21" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="43" t="s">
+      <c r="J21" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="K21" s="43" t="s">
+      <c r="K21" s="46" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="25"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="28"/>
       <c r="I22" s="1" t="str">
         <f>B10</f>
         <v>Trả góp xe máy</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="7">
         <v>4560000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="7">
         <f>C10-J22</f>
         <v>13840000</v>
       </c>
@@ -1762,150 +1783,172 @@
     <row r="23" spans="1:11">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="25"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="28"/>
+      <c r="H23" s="21">
+        <v>44082</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f>B10</f>
+        <v>Trả góp xe máy</v>
+      </c>
+      <c r="J23" s="7">
+        <v>4560000</v>
+      </c>
+      <c r="K23" s="7">
+        <f>K22-J23</f>
+        <v>9280000</v>
+      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="25"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="28"/>
+      <c r="H24" s="21">
+        <v>44115</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f>B11</f>
+        <v>Giày</v>
+      </c>
+      <c r="J24" s="7">
+        <v>4560000</v>
+      </c>
+      <c r="K24" s="7">
+        <f>K23-J24</f>
+        <v>4720000</v>
+      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="25"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="28"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="25"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="28"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="25"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="28"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="25"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="28"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="25"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="28"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
     </row>
     <row r="30" spans="9:11">
       <c r="I30" s="1"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
     </row>
     <row r="31" spans="9:11">
       <c r="I31" s="1"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
     </row>
     <row r="32" spans="9:11">
       <c r="I32" s="1"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
     </row>
     <row r="33" spans="9:11">
       <c r="I33" s="1"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
     </row>
     <row r="34" spans="9:11">
       <c r="I34" s="1"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
     </row>
     <row r="35" spans="9:11">
       <c r="I35" s="1"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
     </row>
     <row r="36" spans="9:11">
       <c r="I36" s="1"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
     </row>
     <row r="37" spans="9:11">
       <c r="I37" s="1"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
     </row>
     <row r="38" spans="9:11">
       <c r="I38" s="1"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
     </row>
     <row r="39" spans="9:11">
       <c r="I39" s="1"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
     </row>
     <row r="40" spans="9:11">
       <c r="I40" s="1"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
     </row>
     <row r="41" spans="9:11">
       <c r="I41" s="1"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
     </row>
     <row r="42" spans="9:11">
       <c r="I42" s="1"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
     </row>
     <row r="43" spans="9:11">
       <c r="I43" s="1"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
     </row>
     <row r="44" spans="9:11">
       <c r="I44" s="1"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
     </row>
     <row r="45" spans="9:11">
       <c r="I45" s="1"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
     </row>
     <row r="46" spans="9:11">
       <c r="I46" s="1"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1929,862 +1972,1113 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:M39"/>
+  <dimension ref="A2:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="12.8611111111111"/>
+    <col min="5" max="5" width="12.8888888888889"/>
     <col min="6" max="6" width="9.86111111111111"/>
-    <col min="7" max="8" width="12.8611111111111"/>
+    <col min="7" max="7" width="12.8888888888889"/>
+    <col min="8" max="8" width="12.8611111111111"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="2">
-        <v>44063</v>
-      </c>
-      <c r="C2" s="3">
-        <v>3762</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2517</v>
-      </c>
-      <c r="E2" s="3">
-        <f>C2-D2</f>
-        <v>1245</v>
-      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
-        <v>44047</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3057</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2874</v>
-      </c>
-      <c r="E4" s="3">
-        <f t="shared" ref="E4:E11" si="0">C4-D4</f>
-        <v>183</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="B4" s="6">
+        <v>44075</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4337</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4174</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" ref="E2:E11" si="0">C4-D4</f>
+        <v>163</v>
+      </c>
+      <c r="F4" s="8">
         <v>60000</v>
       </c>
       <c r="G4" s="1">
-        <f>(E4/F4)*1000</f>
-        <v>3.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <f t="shared" ref="G4:G11" si="1">(E4/F4)*1000</f>
+        <v>2.71666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
-        <v>44050</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3264</v>
-      </c>
-      <c r="D5" s="3">
-        <f>C4</f>
-        <v>3057</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="B5" s="6">
+        <v>44076</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4502</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" ref="D5:D11" si="2">C4</f>
+        <v>4337</v>
+      </c>
+      <c r="E5" s="7">
         <f t="shared" si="0"/>
-        <v>207</v>
-      </c>
-      <c r="F5" s="5">
-        <v>60000</v>
+        <v>165</v>
+      </c>
+      <c r="F5" s="8">
+        <v>53000</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G12" si="1">(E5/F5)*1000</f>
-        <v>3.45</v>
-      </c>
-      <c r="L5" s="19"/>
+        <f t="shared" si="1"/>
+        <v>3.11320754716981</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
-        <v>44055</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3431</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" ref="D6:D11" si="2">C5</f>
-        <v>3264</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="B6" s="6">
+        <v>44077</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4689</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="2"/>
+        <v>4502</v>
+      </c>
+      <c r="E6" s="7">
         <f t="shared" si="0"/>
-        <v>167</v>
-      </c>
-      <c r="F6" s="5">
-        <v>30000</v>
+        <v>187</v>
+      </c>
+      <c r="F6" s="8">
+        <v>50000</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>5.56666666666667</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
-        <v>44057</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3542</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="B7" s="6">
+        <v>44078</v>
+      </c>
+      <c r="C7" s="7">
+        <v>4812</v>
+      </c>
+      <c r="D7" s="7">
         <f t="shared" si="2"/>
-        <v>3431</v>
-      </c>
-      <c r="E7" s="3">
+        <v>4689</v>
+      </c>
+      <c r="E7" s="7">
         <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-      <c r="F7" s="5">
+        <v>123</v>
+      </c>
+      <c r="F7" s="8">
         <v>50000</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>2.22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
-        <v>44062</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3707</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B8" s="6">
+        <v>44079</v>
+      </c>
+      <c r="C8" s="7">
+        <v>5006</v>
+      </c>
+      <c r="D8" s="7">
         <f t="shared" si="2"/>
-        <v>3542</v>
-      </c>
-      <c r="E8" s="3">
+        <v>4812</v>
+      </c>
+      <c r="E8" s="7">
         <f t="shared" si="0"/>
-        <v>165</v>
-      </c>
-      <c r="F8" s="5">
+        <v>194</v>
+      </c>
+      <c r="F8" s="8">
         <v>50000</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="1"/>
-        <v>3.3</v>
-      </c>
-      <c r="M8" s="20"/>
+        <v>3.88</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
-        <v>44064</v>
-      </c>
-      <c r="C9" s="3">
-        <v>3863</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B9" s="6">
+        <v>44080</v>
+      </c>
+      <c r="C9" s="7">
+        <v>5306</v>
+      </c>
+      <c r="D9" s="7">
         <f t="shared" si="2"/>
-        <v>3707</v>
-      </c>
-      <c r="E9" s="3">
+        <v>5006</v>
+      </c>
+      <c r="E9" s="7">
         <f t="shared" si="0"/>
-        <v>156</v>
-      </c>
-      <c r="F9" s="5">
-        <v>50000</v>
+        <v>300</v>
+      </c>
+      <c r="F9" s="8">
+        <v>100000</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="1"/>
-        <v>3.12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="2">
-        <v>44069</v>
-      </c>
-      <c r="C10" s="3">
-        <v>4041</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="B10" s="6">
+        <v>44081</v>
+      </c>
+      <c r="C10" s="7">
+        <v>5473</v>
+      </c>
+      <c r="D10" s="7">
         <f t="shared" si="2"/>
-        <v>3863</v>
-      </c>
-      <c r="E10" s="3">
+        <v>5306</v>
+      </c>
+      <c r="E10" s="7">
         <f t="shared" si="0"/>
-        <v>178</v>
-      </c>
-      <c r="F10" s="5">
-        <v>50000</v>
+        <v>167</v>
+      </c>
+      <c r="F10" s="8">
+        <v>60000</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="1"/>
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2">
-        <v>44071</v>
-      </c>
-      <c r="C11" s="3">
-        <v>4174</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="2"/>
-        <v>4041</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" si="0"/>
-        <v>133</v>
-      </c>
-      <c r="F11" s="5">
-        <v>50000</v>
+        <v>2.78333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8">
+      <c r="D11" s="9" t="str">
+        <f>SUM(E4:E10)&amp;"Km"</f>
+        <v>1299Km</v>
+      </c>
+      <c r="E11" s="1">
+        <f>AVERAGE(E4:E10)</f>
+        <v>185.571428571429</v>
+      </c>
+      <c r="F11" s="10">
+        <f>SUM(F4:F10)</f>
+        <v>423000</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="1"/>
-        <v>2.66</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8">
-      <c r="D12" s="6" t="str">
-        <f>SUM(E4:E11)&amp;"Km"</f>
-        <v>1300Km</v>
-      </c>
-      <c r="E12" s="1">
-        <f>AVERAGE(E4:E11)</f>
-        <v>162.5</v>
-      </c>
-      <c r="F12" s="7">
-        <f>SUM(F4:F10)</f>
-        <v>350000</v>
-      </c>
-      <c r="G12" s="1">
-        <f>AVERAGE(G4:G11)</f>
-        <v>3.36583333333333</v>
-      </c>
-      <c r="H12" s="6" t="str">
-        <f>CEILING(F12/(SUM(E4:E11)),1)&amp;"đ/km"</f>
-        <v>270đ/km</v>
-      </c>
+        <f>AVERAGE(G4:G10)</f>
+        <v>3.09902964959569</v>
+      </c>
+      <c r="H11" s="9" t="str">
+        <f>CEILING(F11/(SUM(E4:E10)),1)&amp;"đ/km"</f>
+        <v>326đ/km</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2">
-        <v>44034</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="6">
+        <v>44063</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3762</v>
+      </c>
+      <c r="D14" s="7">
         <v>2517</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E14" s="7">
+        <f>C14-D14</f>
+        <v>1245</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6">
+        <v>44047</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3057</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2874</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" ref="E16:E23" si="3">C16-D16</f>
+        <v>183</v>
+      </c>
+      <c r="F16" s="8">
+        <v>60000</v>
+      </c>
+      <c r="G16" s="1">
+        <f>(E16/F16)*1000</f>
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="6">
+        <v>44050</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3264</v>
+      </c>
+      <c r="D17" s="7">
         <f>C16</f>
-        <v>1462</v>
-      </c>
-      <c r="E15" s="3">
-        <f>C15-D15</f>
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="2">
-        <v>44019</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1462</v>
-      </c>
-      <c r="D16" s="3">
-        <f>C32</f>
-        <v>617</v>
-      </c>
-      <c r="E16" s="3">
-        <f>C16-D16</f>
-        <v>845</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>3057</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="3"/>
+        <v>207</v>
+      </c>
+      <c r="F17" s="8">
+        <v>60000</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" ref="G17:G24" si="4">(E17/F17)*1000</f>
+        <v>3.45</v>
+      </c>
+      <c r="L17" s="22"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2">
-        <v>44014</v>
-      </c>
-      <c r="C18" s="3">
-        <v>991</v>
-      </c>
-      <c r="D18" s="3">
-        <v>790</v>
-      </c>
-      <c r="E18" s="3">
-        <f>C18-D18</f>
-        <v>201</v>
-      </c>
-      <c r="F18" s="5">
-        <v>60000</v>
+        <v>3</v>
+      </c>
+      <c r="B18" s="6">
+        <v>44055</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3431</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" ref="D18:D23" si="5">C17</f>
+        <v>3264</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="3"/>
+        <v>167</v>
+      </c>
+      <c r="F18" s="8">
+        <v>30000</v>
       </c>
       <c r="G18" s="1">
-        <f>(E18/F18)*1000</f>
-        <v>3.35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <f t="shared" si="4"/>
+        <v>5.56666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2">
-        <v>44016</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1114</v>
-      </c>
-      <c r="D19" s="3">
-        <f>C18</f>
-        <v>991</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" ref="E19:E28" si="3">C19-D19</f>
-        <v>123</v>
-      </c>
-      <c r="F19" s="5">
-        <v>60000</v>
+        <v>4</v>
+      </c>
+      <c r="B19" s="6">
+        <v>44057</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3542</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="5"/>
+        <v>3431</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+      <c r="F19" s="8">
+        <v>50000</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" ref="G19:G29" si="4">(E19/F19)*1000</f>
-        <v>2.05</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <f t="shared" si="4"/>
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>3</v>
-      </c>
-      <c r="B20" s="2">
-        <v>44018</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1460</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" ref="D20:D28" si="5">C19</f>
-        <v>1114</v>
-      </c>
-      <c r="E20" s="3">
+        <v>5</v>
+      </c>
+      <c r="B20" s="6">
+        <v>44062</v>
+      </c>
+      <c r="C20" s="7">
+        <v>3707</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="5"/>
+        <v>3542</v>
+      </c>
+      <c r="E20" s="7">
         <f t="shared" si="3"/>
-        <v>346</v>
-      </c>
-      <c r="F20" s="5">
-        <v>120000</v>
+        <v>165</v>
+      </c>
+      <c r="F20" s="8">
+        <v>50000</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="4"/>
-        <v>2.88333333333333</v>
-      </c>
-      <c r="H20" s="9"/>
+        <v>3.3</v>
+      </c>
+      <c r="M20" s="23"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>4</v>
-      </c>
-      <c r="B21" s="2">
-        <v>44020</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1631</v>
-      </c>
-      <c r="D21" s="3">
+        <v>6</v>
+      </c>
+      <c r="B21" s="6">
+        <v>44064</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3863</v>
+      </c>
+      <c r="D21" s="7">
         <f t="shared" si="5"/>
-        <v>1460</v>
-      </c>
-      <c r="E21" s="3">
+        <v>3707</v>
+      </c>
+      <c r="E21" s="7">
         <f t="shared" si="3"/>
-        <v>171</v>
-      </c>
-      <c r="F21" s="5">
-        <v>60000</v>
+        <v>156</v>
+      </c>
+      <c r="F21" s="8">
+        <v>50000</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="4"/>
-        <v>2.85</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>5</v>
-      </c>
-      <c r="B22" s="2">
-        <v>44024</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1831</v>
-      </c>
-      <c r="D22" s="3">
+        <v>7</v>
+      </c>
+      <c r="B22" s="6">
+        <v>44069</v>
+      </c>
+      <c r="C22" s="7">
+        <v>4041</v>
+      </c>
+      <c r="D22" s="7">
         <f t="shared" si="5"/>
-        <v>1631</v>
-      </c>
-      <c r="E22" s="3">
+        <v>3863</v>
+      </c>
+      <c r="E22" s="7">
         <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="F22" s="5">
-        <v>60001</v>
+        <v>178</v>
+      </c>
+      <c r="F22" s="8">
+        <v>50000</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="4"/>
-        <v>3.33327777870369</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>6</v>
-      </c>
-      <c r="B23" s="2">
-        <v>44026</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1995</v>
-      </c>
-      <c r="D23" s="3">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>44071</v>
+      </c>
+      <c r="C23" s="7">
+        <v>4174</v>
+      </c>
+      <c r="D23" s="7">
         <f t="shared" si="5"/>
-        <v>1831</v>
-      </c>
-      <c r="E23" s="3">
+        <v>4041</v>
+      </c>
+      <c r="E23" s="7">
         <f t="shared" si="3"/>
-        <v>164</v>
-      </c>
-      <c r="F23" s="5">
-        <v>60002</v>
+        <v>133</v>
+      </c>
+      <c r="F23" s="8">
+        <v>50000</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="4"/>
-        <v>2.73324222525916</v>
-      </c>
-      <c r="H23" t="s">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8">
+      <c r="D24" s="9" t="str">
+        <f>SUM(E16:E23)&amp;"Km"</f>
+        <v>1300Km</v>
+      </c>
+      <c r="E24" s="1">
+        <f>AVERAGE(E16:E23)</f>
+        <v>162.5</v>
+      </c>
+      <c r="F24" s="10">
+        <f>SUM(F16:F22)</f>
+        <v>350000</v>
+      </c>
+      <c r="G24" s="1">
+        <f>AVERAGE(G16:G23)</f>
+        <v>3.36583333333333</v>
+      </c>
+      <c r="H24" s="9" t="str">
+        <f>CEILING(F24/(SUM(E16:E23)),1)&amp;"đ/km"</f>
+        <v>270đ/km</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1"/>
+      <c r="B27" s="6">
+        <v>44034</v>
+      </c>
+      <c r="C27" s="7">
+        <v>2517</v>
+      </c>
+      <c r="D27" s="7">
+        <f>C28</f>
+        <v>1462</v>
+      </c>
+      <c r="E27" s="7">
+        <f>C27-D27</f>
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="6">
+        <v>44019</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1462</v>
+      </c>
+      <c r="D28" s="7">
+        <f>C44</f>
+        <v>617</v>
+      </c>
+      <c r="E28" s="7">
+        <f>C28-D28</f>
+        <v>845</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="6">
+        <v>44014</v>
+      </c>
+      <c r="C30" s="7">
+        <v>991</v>
+      </c>
+      <c r="D30" s="7">
+        <v>790</v>
+      </c>
+      <c r="E30" s="7">
+        <f>C30-D30</f>
+        <v>201</v>
+      </c>
+      <c r="F30" s="8">
+        <v>60000</v>
+      </c>
+      <c r="G30" s="1">
+        <f>(E30/F30)*1000</f>
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="6">
+        <v>44016</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1114</v>
+      </c>
+      <c r="D31" s="7">
+        <f>C30</f>
+        <v>991</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" ref="E31:E40" si="6">C31-D31</f>
+        <v>123</v>
+      </c>
+      <c r="F31" s="8">
+        <v>60000</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" ref="G31:G41" si="7">(E31/F31)*1000</f>
+        <v>2.05</v>
+      </c>
+      <c r="H31" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1">
-        <v>7</v>
-      </c>
-      <c r="B24" s="2">
-        <v>44028</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2157</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" si="5"/>
-        <v>1995</v>
-      </c>
-      <c r="E24" s="3">
-        <f t="shared" si="3"/>
-        <v>162</v>
-      </c>
-      <c r="F24" s="5">
-        <v>60003</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="4"/>
-        <v>2.69986500674966</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1">
-        <v>8</v>
-      </c>
-      <c r="B25" s="2">
-        <v>44030</v>
-      </c>
-      <c r="C25" s="3">
-        <v>2334</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="5"/>
-        <v>2157</v>
-      </c>
-      <c r="E25" s="3">
-        <f t="shared" si="3"/>
-        <v>177</v>
-      </c>
-      <c r="F25" s="5">
-        <v>60004</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="4"/>
-        <v>2.94980334644357</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1">
-        <v>9</v>
-      </c>
-      <c r="B26" s="2">
-        <v>44034</v>
-      </c>
-      <c r="C26" s="3">
-        <v>2496</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" si="5"/>
-        <v>2334</v>
-      </c>
-      <c r="E26" s="3">
-        <f t="shared" si="3"/>
-        <v>162</v>
-      </c>
-      <c r="F26" s="5">
-        <v>60005</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="4"/>
-        <v>2.69977501874844</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1">
-        <v>10</v>
-      </c>
-      <c r="B27" s="2">
-        <v>44036</v>
-      </c>
-      <c r="C27" s="3">
-        <v>2685</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" si="5"/>
-        <v>2496</v>
-      </c>
-      <c r="E27" s="3">
-        <f t="shared" si="3"/>
-        <v>189</v>
-      </c>
-      <c r="F27" s="5">
-        <v>60006</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="4"/>
-        <v>3.14968503149685</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1">
-        <v>11</v>
-      </c>
-      <c r="B28" s="2">
-        <v>44041</v>
-      </c>
-      <c r="C28" s="3">
-        <v>2874</v>
-      </c>
-      <c r="D28" s="3">
-        <f t="shared" si="5"/>
-        <v>2685</v>
-      </c>
-      <c r="E28" s="3">
-        <f t="shared" si="3"/>
-        <v>189</v>
-      </c>
-      <c r="F28" s="5">
-        <v>60007</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="4"/>
-        <v>3.14963254287</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8">
-      <c r="D29" s="6" t="str">
-        <f>SUM(E18:E28)&amp;"km"</f>
-        <v>2084km</v>
-      </c>
-      <c r="E29" s="1">
-        <f>AVERAGE(E18:E28)</f>
-        <v>189.454545454545</v>
-      </c>
-      <c r="F29" s="7">
-        <f>SUM(F18:F28)</f>
-        <v>720028</v>
-      </c>
-      <c r="G29" s="1">
-        <f>AVERAGE(G18:G28)</f>
-        <v>2.89532857123679</v>
-      </c>
-      <c r="H29" s="6" t="str">
-        <f>CEILING(F29/(SUM(E18:E28)),1)&amp;"đ/km"</f>
-        <v>346đ/km</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="2">
-        <v>44007</v>
-      </c>
-      <c r="C32" s="3">
-        <v>617</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="12">
-        <f>C32-D32</f>
-        <v>617</v>
-      </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="14" t="s">
-        <v>41</v>
-      </c>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
+      <c r="B32" s="6">
+        <v>44018</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1460</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" ref="D32:D40" si="8">C31</f>
+        <v>1114</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" si="6"/>
+        <v>346</v>
+      </c>
+      <c r="F32" s="8">
+        <v>120000</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="7"/>
+        <v>2.88333333333333</v>
+      </c>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="1" t="s">
-        <v>36</v>
+      <c r="A33" s="1">
+        <v>4</v>
+      </c>
+      <c r="B33" s="6">
+        <v>44020</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1631</v>
+      </c>
+      <c r="D33" s="7">
+        <f t="shared" si="8"/>
+        <v>1460</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" si="6"/>
+        <v>171</v>
+      </c>
+      <c r="F33" s="8">
+        <v>60000</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="7"/>
+        <v>2.85</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1">
-        <v>1</v>
-      </c>
-      <c r="B34" s="2">
-        <v>43999</v>
-      </c>
-      <c r="C34" s="3">
-        <v>210</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3">
-        <f>C34-D34</f>
-        <v>210</v>
-      </c>
-      <c r="F34" s="5">
-        <v>60000</v>
+        <v>5</v>
+      </c>
+      <c r="B34" s="6">
+        <v>44024</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1831</v>
+      </c>
+      <c r="D34" s="7">
+        <f t="shared" si="8"/>
+        <v>1631</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="F34" s="8">
+        <v>60001</v>
       </c>
       <c r="G34" s="1">
-        <f>(E34/F34)*1000</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <f t="shared" si="7"/>
+        <v>3.33327777870369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
-        <v>2</v>
-      </c>
-      <c r="B35" s="2">
-        <v>44003</v>
-      </c>
-      <c r="C35" s="3">
-        <v>395</v>
-      </c>
-      <c r="D35" s="3">
-        <f>C34</f>
-        <v>210</v>
-      </c>
-      <c r="E35" s="3">
-        <f>C35-D35</f>
-        <v>185</v>
-      </c>
-      <c r="F35" s="5">
-        <v>60000</v>
+        <v>6</v>
+      </c>
+      <c r="B35" s="6">
+        <v>44026</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1995</v>
+      </c>
+      <c r="D35" s="7">
+        <f t="shared" si="8"/>
+        <v>1831</v>
+      </c>
+      <c r="E35" s="7">
+        <f t="shared" si="6"/>
+        <v>164</v>
+      </c>
+      <c r="F35" s="8">
+        <v>60002</v>
       </c>
       <c r="G35" s="1">
-        <f>(E35/F35)*1000</f>
-        <v>3.08333333333333</v>
+        <f t="shared" si="7"/>
+        <v>2.73324222525916</v>
+      </c>
+      <c r="H35" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1">
-        <v>3</v>
-      </c>
-      <c r="B36" s="2">
-        <v>44007</v>
-      </c>
-      <c r="C36" s="3">
-        <v>617</v>
-      </c>
-      <c r="D36" s="3">
-        <f>C35</f>
-        <v>395</v>
-      </c>
-      <c r="E36" s="3">
-        <f>C36-D36</f>
-        <v>222</v>
-      </c>
-      <c r="F36" s="5">
-        <v>60000</v>
+        <v>7</v>
+      </c>
+      <c r="B36" s="6">
+        <v>44028</v>
+      </c>
+      <c r="C36" s="7">
+        <v>2157</v>
+      </c>
+      <c r="D36" s="7">
+        <f t="shared" si="8"/>
+        <v>1995</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" si="6"/>
+        <v>162</v>
+      </c>
+      <c r="F36" s="8">
+        <v>60003</v>
       </c>
       <c r="G36" s="1">
-        <f>(E36/F36)*1000</f>
-        <v>3.7</v>
+        <f t="shared" si="7"/>
+        <v>2.69986500674966</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1">
+        <v>8</v>
+      </c>
+      <c r="B37" s="6">
+        <v>44030</v>
+      </c>
+      <c r="C37" s="7">
+        <v>2334</v>
+      </c>
+      <c r="D37" s="7">
+        <f t="shared" si="8"/>
+        <v>2157</v>
+      </c>
+      <c r="E37" s="7">
+        <f t="shared" si="6"/>
+        <v>177</v>
+      </c>
+      <c r="F37" s="8">
+        <v>60004</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="7"/>
+        <v>2.94980334644357</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>9</v>
+      </c>
+      <c r="B38" s="6">
+        <v>44034</v>
+      </c>
+      <c r="C38" s="7">
+        <v>2496</v>
+      </c>
+      <c r="D38" s="7">
+        <f t="shared" si="8"/>
+        <v>2334</v>
+      </c>
+      <c r="E38" s="7">
+        <f t="shared" si="6"/>
+        <v>162</v>
+      </c>
+      <c r="F38" s="8">
+        <v>60005</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="7"/>
+        <v>2.69977501874844</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>10</v>
+      </c>
+      <c r="B39" s="6">
+        <v>44036</v>
+      </c>
+      <c r="C39" s="7">
+        <v>2685</v>
+      </c>
+      <c r="D39" s="7">
+        <f t="shared" si="8"/>
+        <v>2496</v>
+      </c>
+      <c r="E39" s="7">
+        <f t="shared" si="6"/>
+        <v>189</v>
+      </c>
+      <c r="F39" s="8">
+        <v>60006</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="7"/>
+        <v>3.14968503149685</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>11</v>
+      </c>
+      <c r="B40" s="6">
+        <v>44041</v>
+      </c>
+      <c r="C40" s="7">
+        <v>2874</v>
+      </c>
+      <c r="D40" s="7">
+        <f t="shared" si="8"/>
+        <v>2685</v>
+      </c>
+      <c r="E40" s="7">
+        <f t="shared" si="6"/>
+        <v>189</v>
+      </c>
+      <c r="F40" s="8">
+        <v>60007</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="7"/>
+        <v>3.14963254287</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8">
+      <c r="D41" s="9" t="str">
+        <f>SUM(E30:E40)&amp;"km"</f>
+        <v>2084km</v>
+      </c>
+      <c r="E41" s="1">
+        <f>AVERAGE(E30:E40)</f>
+        <v>189.454545454545</v>
+      </c>
+      <c r="F41" s="10">
+        <f>SUM(F30:F40)</f>
+        <v>720028</v>
+      </c>
+      <c r="G41" s="1">
+        <f>AVERAGE(G30:G40)</f>
+        <v>2.89532857123679</v>
+      </c>
+      <c r="H41" s="9" t="str">
+        <f>CEILING(F41/(SUM(E30:E40)),1)&amp;"đ/km"</f>
+        <v>346đ/km</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="14"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="6">
+        <v>44007</v>
+      </c>
+      <c r="C44" s="7">
+        <v>617</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0</v>
+      </c>
+      <c r="E44" s="15">
+        <f>C44-D44</f>
+        <v>617</v>
+      </c>
+      <c r="F44" s="16"/>
+      <c r="G44" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="6">
+        <v>43999</v>
+      </c>
+      <c r="C46" s="7">
+        <v>210</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0</v>
+      </c>
+      <c r="E46" s="7">
+        <f>C46-D46</f>
+        <v>210</v>
+      </c>
+      <c r="F46" s="8">
+        <v>60000</v>
+      </c>
+      <c r="G46" s="1">
+        <f>(E46/F46)*1000</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>2</v>
+      </c>
+      <c r="B47" s="6">
+        <v>44003</v>
+      </c>
+      <c r="C47" s="7">
+        <v>395</v>
+      </c>
+      <c r="D47" s="7">
+        <f>C46</f>
+        <v>210</v>
+      </c>
+      <c r="E47" s="7">
+        <f>C47-D47</f>
+        <v>185</v>
+      </c>
+      <c r="F47" s="8">
+        <v>60000</v>
+      </c>
+      <c r="G47" s="1">
+        <f>(E47/F47)*1000</f>
+        <v>3.08333333333333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>3</v>
+      </c>
+      <c r="B48" s="6">
+        <v>44007</v>
+      </c>
+      <c r="C48" s="7">
+        <v>617</v>
+      </c>
+      <c r="D48" s="7">
+        <f>C47</f>
+        <v>395</v>
+      </c>
+      <c r="E48" s="7">
+        <f>C48-D48</f>
+        <v>222</v>
+      </c>
+      <c r="F48" s="8">
+        <v>60000</v>
+      </c>
+      <c r="G48" s="1">
+        <f>(E48/F48)*1000</f>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
         <v>4</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B49" s="6">
         <v>44011</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C49" s="7">
         <v>790</v>
       </c>
-      <c r="D37" s="3">
-        <f>C36</f>
+      <c r="D49" s="7">
+        <f>C48</f>
         <v>617</v>
       </c>
-      <c r="E37" s="3">
-        <f>C37-D37</f>
+      <c r="E49" s="7">
+        <f>C49-D49</f>
         <v>173</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F49" s="8">
         <v>60000</v>
       </c>
-      <c r="G37" s="1">
-        <f>(E37/F37)*1000</f>
+      <c r="G49" s="1">
+        <f>(E49/F49)*1000</f>
         <v>2.88333333333333</v>
       </c>
     </row>
-    <row r="38" spans="4:8">
-      <c r="D38" s="6" t="str">
-        <f>SUM(E34:E37)&amp;"km"</f>
+    <row r="50" spans="4:8">
+      <c r="D50" s="9" t="str">
+        <f>SUM(E46:E49)&amp;"km"</f>
         <v>790km</v>
       </c>
-      <c r="E38" s="1">
-        <f>AVERAGE(E34:E37)</f>
+      <c r="E50" s="1">
+        <f>AVERAGE(E46:E49)</f>
         <v>197.5</v>
       </c>
-      <c r="F38" s="7">
-        <f>SUM(F34:F37)</f>
+      <c r="F50" s="10">
+        <f>SUM(F46:F49)</f>
         <v>240000</v>
       </c>
-      <c r="G38" s="1">
-        <f>AVERAGE(G34:G37)</f>
+      <c r="G50" s="1">
+        <f>AVERAGE(G46:G49)</f>
         <v>3.29166666666667</v>
       </c>
-      <c r="H38" s="6" t="str">
-        <f>CEILING(F38/(SUM(E34:E37)),1)&amp;"đ/km"</f>
+      <c r="H50" s="9" t="str">
+        <f>CEILING(F50/(SUM(E46:E49)),1)&amp;"đ/km"</f>
         <v>304đ/km</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="18">
+    <row r="51" spans="2:3">
+      <c r="B51" s="21">
         <v>43986</v>
       </c>
-      <c r="C39" t="s">
-        <v>43</v>
+      <c r="C51" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="B2:E2"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="H31:H32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
